--- a/data/sheets/Silver Colour.xlsx
+++ b/data/sheets/Silver Colour.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C52F9CBD-7DA1-4116-8FF8-A9570CD54557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A796A5-1150-4AB0-B15D-4C92640C2041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3315AB90-7C14-4C26-B044-BC2C11C68AA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF815535-466F-4C2D-AE20-3EE6F81B6D17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Silver Colour" sheetId="2" r:id="rId1"/>
+    <sheet name="Silver Colour" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -149,14 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -295,54 +287,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{22E4220A-DDF8-48DD-BB3A-40783B9F7122}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{375298F7-6F5E-459C-A56F-8348F4DDF26E}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1124,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A5AC1-16C6-458D-BBD3-53414B59A526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931F7BF4-E901-4AF0-A1AC-97D87A1F15ED}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
@@ -1135,7 +1125,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
@@ -1145,7 +1135,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0.2</v>
       </c>
@@ -1162,7 +1152,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1179,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1204,7 @@
         <v>-0.15217570779610012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1229,7 @@
         <v>0.50126262200442295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1254,7 @@
         <v>0.2256845959151772</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1279,7 @@
         <v>-6.9924398002908283E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1304,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1329,7 @@
         <v>0.29929552750460098</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1364,7 +1354,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1363,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1398,7 +1388,7 @@
         <v>-0.28596250539277357</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1413,7 @@
         <v>0.14914421181830684</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1438,7 @@
         <v>0.54050164019823255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
